--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="5" max="5" width="14.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="13.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2704105107590653</v>
+        <v>0.25946821620778671</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26478079117080128</v>
+        <v>0.056919305076299331</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0077658520404242804</v>
+        <v>-0.21260395076083896</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0010054159253392264</v>
+        <v>-0.018092749781661303</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00032352157902629827</v>
+        <v>0.021695273591774575</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0012659791914787913</v>
+        <v>0.00071617080654457757</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.4183414791583674e-05</v>
+        <v>0.0012081421758758678</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00022979368186114255</v>
+        <v>0.010328259909599425</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.735135270104383e-05</v>
+        <v>-0.0058000570727815282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.36776812995734892</v>
+        <v>0.32719001570710399</v>
       </c>
       <c r="C4" s="0">
-        <v>0.10569481425156549</v>
+        <v>0.083264686460731374</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0022204094850291275</v>
+        <v>-0.011309905964898019</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00014499130961631343</v>
+        <v>0.0023169921275845834</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00010945095524042828</v>
+        <v>-0.0091372907240312735</v>
       </c>
       <c r="I4" s="0">
-        <v>9.4143660246059543e-06</v>
+        <v>0.18833814429196305</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.002566214334496904</v>
+        <v>0.012644050985688099</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0020341936341076727</v>
+        <v>0.0041540334537668588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36615914725107174</v>
+        <v>0.21049819624130819</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.016933276997179579</v>
+        <v>0.0074064002231644388</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00018164050485287731</v>
+        <v>0.0088633160282011042</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00054737075107645259</v>
+        <v>-0.18554268545542318</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0018421558639220219</v>
+        <v>0.0040130604627957919</v>
       </c>
       <c r="H5" s="0">
-        <v>-8.6347416816600649e-05</v>
+        <v>-0.0081080723692993888</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0099724324053498941</v>
+        <v>0.013694880462246994</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0043250646943764348</v>
+        <v>0.042981281182518483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.20610019713912953</v>
+        <v>-0.13424547505563306</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.19128378981502042</v>
+        <v>-0.19675620097090657</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.7663849247735916e-05</v>
+        <v>-0.04269591388625664</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010535345194136261</v>
+        <v>-0.0058243537486592032</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00072900649531769694</v>
+        <v>-0.0043176359018999655</v>
       </c>
       <c r="I6" s="0">
-        <v>0.036972479579015685</v>
+        <v>-0.10009174333297345</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0074725170414211006</v>
+        <v>0.004942176543754534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.098427281625391827</v>
+        <v>-0.030411897641292485</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.10324387714375517</v>
+        <v>0.27509715380626171</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0035947135086322555</v>
+        <v>-0.0029933814623619289</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0037025879893973568</v>
+        <v>-0.11751152755255533</v>
       </c>
       <c r="G7" s="0">
-        <v>2.0326082720075345e-05</v>
+        <v>0.0051246547115479787</v>
       </c>
       <c r="H7" s="0">
-        <v>-8.1727777380782561e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0011007100684914508</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0053604722630481438</v>
+        <v>-0.055883322088551846</v>
       </c>
     </row>
     <row r="8">
